--- a/Data/DB/DB_EpiMarks.xlsx
+++ b/Data/DB/DB_EpiMarks.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28D94A27-24BE-C446-AE60-DAB39117FD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="376">
   <si>
     <t>Strain</t>
   </si>
@@ -890,13 +891,268 @@
   </si>
   <si>
     <t>Peptide B, Sulfur starvation 6 hr)</t>
+  </si>
+  <si>
+    <t>Zygotic, Germinated</t>
+  </si>
+  <si>
+    <t>5mC</t>
+  </si>
+  <si>
+    <t>BS-Seq</t>
+  </si>
+  <si>
+    <t>v5.0</t>
+  </si>
+  <si>
+    <t>Paper link</t>
+  </si>
+  <si>
+    <t>PRJNA285349</t>
+  </si>
+  <si>
+    <t>SRX1045044</t>
+  </si>
+  <si>
+    <t>SRX1045043</t>
+  </si>
+  <si>
+    <t>Zygotic, 6 days</t>
+  </si>
+  <si>
+    <t>SRX1045042</t>
+  </si>
+  <si>
+    <t>Zygotic, 24 hr</t>
+  </si>
+  <si>
+    <t>Zygotic, 1 hr</t>
+  </si>
+  <si>
+    <t>SRX1045041</t>
+  </si>
+  <si>
+    <t>Gametic, mt-</t>
+  </si>
+  <si>
+    <t>Gametic, mt+</t>
+  </si>
+  <si>
+    <t>Vegetative, mt-</t>
+  </si>
+  <si>
+    <t>Vegetative, mt+</t>
+  </si>
+  <si>
+    <t>Gametic CJU10 mt-</t>
+  </si>
+  <si>
+    <t>Vegetative CJU10 mt-</t>
+  </si>
+  <si>
+    <t>Gametic R3 mt+</t>
+  </si>
+  <si>
+    <t>Vegetative R3 mt+</t>
+  </si>
+  <si>
+    <t>SRX1045040</t>
+  </si>
+  <si>
+    <t>SRX1045039</t>
+  </si>
+  <si>
+    <t>SRX1045038</t>
+  </si>
+  <si>
+    <t>SRX1045037</t>
+  </si>
+  <si>
+    <t>Lopez, 2015</t>
+  </si>
+  <si>
+    <t>Fu, 2015</t>
+  </si>
+  <si>
+    <t>GSM1666091</t>
+  </si>
+  <si>
+    <t>GSM1666092</t>
+  </si>
+  <si>
+    <t>GSM1666093</t>
+  </si>
+  <si>
+    <t>GSM1666094</t>
+  </si>
+  <si>
+    <t>GSM1666095</t>
+  </si>
+  <si>
+    <t>GSM1666096</t>
+  </si>
+  <si>
+    <t>GSM1666097</t>
+  </si>
+  <si>
+    <t>GSM1666098</t>
+  </si>
+  <si>
+    <t>GSM1666099</t>
+  </si>
+  <si>
+    <t>GSM1666100</t>
+  </si>
+  <si>
+    <t>PRJNA264813</t>
+  </si>
+  <si>
+    <t>6mA</t>
+  </si>
+  <si>
+    <t>IP light 1</t>
+  </si>
+  <si>
+    <t>IP light 2</t>
+  </si>
+  <si>
+    <t>IP dark</t>
+  </si>
+  <si>
+    <t>Input light</t>
+  </si>
+  <si>
+    <t>Input dark</t>
+  </si>
+  <si>
+    <t>DpnII light</t>
+  </si>
+  <si>
+    <t>DpnII dark</t>
+  </si>
+  <si>
+    <t>CviAII light</t>
+  </si>
+  <si>
+    <t>CviAII dark</t>
+  </si>
+  <si>
+    <t>Mnseq</t>
+  </si>
+  <si>
+    <t>MeDIP-Seq</t>
+  </si>
+  <si>
+    <t>SRX1008135</t>
+  </si>
+  <si>
+    <t>6mA, IP light 1, MeDIP-Seq</t>
+  </si>
+  <si>
+    <t>SRX1008136</t>
+  </si>
+  <si>
+    <t>6mA, IP light 2, MeDIP-Seq</t>
+  </si>
+  <si>
+    <t>SRX1008137</t>
+  </si>
+  <si>
+    <t>SRX1008138</t>
+  </si>
+  <si>
+    <t>SRX1008139</t>
+  </si>
+  <si>
+    <t>SRX1008140</t>
+  </si>
+  <si>
+    <t>SRX1008141</t>
+  </si>
+  <si>
+    <t>SRX1008142</t>
+  </si>
+  <si>
+    <t>SRX1008143</t>
+  </si>
+  <si>
+    <t>SRX1008144</t>
+  </si>
+  <si>
+    <t>6mA, IP dark, MeDIP-Seq</t>
+  </si>
+  <si>
+    <t>6mA, Input light, MeDIP-Seq</t>
+  </si>
+  <si>
+    <t>6mA, Input dark, MeDIP-Seq</t>
+  </si>
+  <si>
+    <t>DpnII digestion</t>
+  </si>
+  <si>
+    <t>CviAII digestion</t>
+  </si>
+  <si>
+    <t>6mA, DpnII light, Other</t>
+  </si>
+  <si>
+    <t>6mA, DpnII dark, Other</t>
+  </si>
+  <si>
+    <t>6mA, CviAII light, Other</t>
+  </si>
+  <si>
+    <t>6mA, CviAII dark, Other</t>
+  </si>
+  <si>
+    <t>6mA, MNase-Seq</t>
+  </si>
+  <si>
+    <t>MNase-Seq</t>
+  </si>
+  <si>
+    <t>CC1609 mt+</t>
+  </si>
+  <si>
+    <t>R3 mt+/CJU10 mt-</t>
+  </si>
+  <si>
+    <t>no lo pone, pero dice la versión de JGI 9.1</t>
+  </si>
+  <si>
+    <t>no lo pone, pero dice la versión de JGI 9.2</t>
+  </si>
+  <si>
+    <t>no lo pone, pero dice la versión de JGI 9.3</t>
+  </si>
+  <si>
+    <t>no lo pone, pero dice la versión de JGI 9.4</t>
+  </si>
+  <si>
+    <t>no lo pone, pero dice la versión de JGI 9.5</t>
+  </si>
+  <si>
+    <t>no lo pone, pero dice la versión de JGI 9.6</t>
+  </si>
+  <si>
+    <t>no lo pone, pero dice la versión de JGI 9.7</t>
+  </si>
+  <si>
+    <t>no lo pone, pero dice la versión de JGI 9.8</t>
+  </si>
+  <si>
+    <t>no lo pone, pero dice la versión de JGI 9.9</t>
+  </si>
+  <si>
+    <t>no lo pone, pero dice la versión de JGI 9.10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,6 +1164,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -934,7 +1203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -946,6 +1215,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -983,6 +1253,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagen 1" descr="Less...">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1102,6 +1377,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1137,6 +1429,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1312,31 +1621,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1370,8 +1681,11 @@
       <c r="K1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1406,7 +1720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1441,7 +1755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1476,7 +1790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1511,7 +1825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1546,7 +1860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1581,7 +1895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1616,7 +1930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1651,7 +1965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1686,7 +2000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1721,7 +2035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1756,7 +2070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1791,7 +2105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1826,7 +2140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1861,7 +2175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1896,7 +2210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +2245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1966,7 +2280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2001,7 +2315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2036,7 +2350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2071,7 +2385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2106,7 +2420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2141,7 +2455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2176,7 +2490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2211,7 +2525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2246,7 +2560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2281,7 +2595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2316,7 +2630,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2351,7 +2665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2386,7 +2700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2421,7 +2735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2456,7 +2770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2491,7 +2805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2526,7 +2840,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2561,7 +2875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2596,7 +2910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2631,7 +2945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2666,7 +2980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2701,7 +3015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2736,7 +3050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2771,7 +3085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2806,7 +3120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2841,7 +3155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2876,7 +3190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2911,7 +3225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2946,7 +3260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2981,7 +3295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -3016,7 +3330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -3051,7 +3365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -3086,7 +3400,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -3121,7 +3435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -3156,7 +3470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -3191,7 +3505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -3226,7 +3540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -3261,7 +3575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3296,7 +3610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3331,7 +3645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -3366,7 +3680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -3401,7 +3715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3436,7 +3750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3471,7 +3785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -3506,7 +3820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -3541,7 +3855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -3576,7 +3890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -3611,7 +3925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -3646,7 +3960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -3681,7 +3995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -3716,7 +4030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -3751,7 +4065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -3786,7 +4100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -3821,7 +4135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -3856,7 +4170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3891,7 +4205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -3926,7 +4240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -3961,7 +4275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3996,7 +4310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -4031,157 +4345,717 @@
         <v>19</v>
       </c>
     </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>365</v>
+      </c>
+      <c r="B78" t="s">
+        <v>291</v>
+      </c>
+      <c r="C78" t="s">
+        <v>292</v>
+      </c>
+      <c r="D78" t="s">
+        <v>293</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G78" t="s">
+        <v>294</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>365</v>
+      </c>
+      <c r="B79" t="s">
+        <v>299</v>
+      </c>
+      <c r="C79" t="s">
+        <v>292</v>
+      </c>
+      <c r="D79" t="s">
+        <v>293</v>
+      </c>
+      <c r="E79" t="s">
+        <v>299</v>
+      </c>
+      <c r="G79" t="s">
+        <v>294</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>365</v>
+      </c>
+      <c r="B80" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80" t="s">
+        <v>292</v>
+      </c>
+      <c r="D80" t="s">
+        <v>293</v>
+      </c>
+      <c r="E80" t="s">
+        <v>301</v>
+      </c>
+      <c r="G80" t="s">
+        <v>294</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>365</v>
+      </c>
+      <c r="B81" t="s">
+        <v>302</v>
+      </c>
+      <c r="C81" t="s">
+        <v>292</v>
+      </c>
+      <c r="D81" t="s">
+        <v>293</v>
+      </c>
+      <c r="E81" t="s">
+        <v>302</v>
+      </c>
+      <c r="G81" t="s">
+        <v>294</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>365</v>
+      </c>
+      <c r="B82" t="s">
+        <v>304</v>
+      </c>
+      <c r="C82" t="s">
+        <v>292</v>
+      </c>
+      <c r="D82" t="s">
+        <v>293</v>
+      </c>
+      <c r="E82" t="s">
+        <v>308</v>
+      </c>
+      <c r="G82" t="s">
+        <v>294</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>365</v>
+      </c>
+      <c r="B83" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" t="s">
+        <v>292</v>
+      </c>
+      <c r="D83" t="s">
+        <v>293</v>
+      </c>
+      <c r="E83" t="s">
+        <v>310</v>
+      </c>
+      <c r="G83" t="s">
+        <v>294</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>365</v>
+      </c>
+      <c r="B84" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84" t="s">
+        <v>292</v>
+      </c>
+      <c r="D84" t="s">
+        <v>293</v>
+      </c>
+      <c r="E84" t="s">
+        <v>309</v>
+      </c>
+      <c r="G84" t="s">
+        <v>294</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>365</v>
+      </c>
+      <c r="B85" t="s">
+        <v>307</v>
+      </c>
+      <c r="C85" t="s">
+        <v>292</v>
+      </c>
+      <c r="D85" t="s">
+        <v>293</v>
+      </c>
+      <c r="E85" t="s">
+        <v>311</v>
+      </c>
+      <c r="G85" t="s">
+        <v>294</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>364</v>
+      </c>
+      <c r="B86" t="s">
+        <v>330</v>
+      </c>
+      <c r="C86" t="s">
+        <v>329</v>
+      </c>
+      <c r="D86" t="s">
+        <v>340</v>
+      </c>
+      <c r="E86" t="s">
+        <v>342</v>
+      </c>
+      <c r="G86" t="s">
+        <v>366</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>364</v>
+      </c>
+      <c r="B87" t="s">
+        <v>331</v>
+      </c>
+      <c r="C87" t="s">
+        <v>329</v>
+      </c>
+      <c r="D87" t="s">
+        <v>340</v>
+      </c>
+      <c r="E87" t="s">
+        <v>344</v>
+      </c>
+      <c r="G87" t="s">
+        <v>367</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>364</v>
+      </c>
+      <c r="B88" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88" t="s">
+        <v>329</v>
+      </c>
+      <c r="D88" t="s">
+        <v>340</v>
+      </c>
+      <c r="E88" t="s">
+        <v>353</v>
+      </c>
+      <c r="G88" t="s">
+        <v>368</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>364</v>
+      </c>
+      <c r="B89" t="s">
+        <v>333</v>
+      </c>
+      <c r="C89" t="s">
+        <v>329</v>
+      </c>
+      <c r="D89" t="s">
+        <v>340</v>
+      </c>
+      <c r="E89" t="s">
+        <v>354</v>
+      </c>
+      <c r="G89" t="s">
+        <v>369</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>364</v>
+      </c>
+      <c r="B90" t="s">
+        <v>334</v>
+      </c>
+      <c r="C90" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" t="s">
+        <v>340</v>
+      </c>
+      <c r="E90" t="s">
+        <v>355</v>
+      </c>
+      <c r="G90" t="s">
+        <v>370</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>364</v>
+      </c>
+      <c r="B91" t="s">
+        <v>335</v>
+      </c>
+      <c r="C91" t="s">
+        <v>329</v>
+      </c>
+      <c r="D91" t="s">
+        <v>356</v>
+      </c>
+      <c r="E91" t="s">
+        <v>358</v>
+      </c>
+      <c r="G91" t="s">
+        <v>371</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>364</v>
+      </c>
+      <c r="B92" t="s">
+        <v>336</v>
+      </c>
+      <c r="C92" t="s">
+        <v>329</v>
+      </c>
+      <c r="D92" t="s">
+        <v>356</v>
+      </c>
+      <c r="E92" t="s">
+        <v>359</v>
+      </c>
+      <c r="G92" t="s">
+        <v>372</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>364</v>
+      </c>
+      <c r="B93" t="s">
+        <v>337</v>
+      </c>
+      <c r="C93" t="s">
+        <v>329</v>
+      </c>
+      <c r="D93" t="s">
+        <v>357</v>
+      </c>
+      <c r="E93" t="s">
+        <v>360</v>
+      </c>
+      <c r="G93" t="s">
+        <v>373</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>364</v>
+      </c>
+      <c r="B94" t="s">
+        <v>338</v>
+      </c>
+      <c r="C94" t="s">
+        <v>329</v>
+      </c>
+      <c r="D94" t="s">
+        <v>357</v>
+      </c>
+      <c r="E94" t="s">
+        <v>361</v>
+      </c>
+      <c r="G94" t="s">
+        <v>374</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>364</v>
+      </c>
+      <c r="B95" t="s">
+        <v>339</v>
+      </c>
+      <c r="C95" t="s">
+        <v>329</v>
+      </c>
+      <c r="D95" t="s">
+        <v>363</v>
+      </c>
+      <c r="E95" t="s">
+        <v>362</v>
+      </c>
+      <c r="G95" t="s">
+        <v>375</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K3" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="I3" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I4" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="K4" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K5" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="I5" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="K6" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K10" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K14" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K18" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K22" r:id="rId12" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K26" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K30" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K34" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K38" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K42" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K46" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K50" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K54" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K58" r:id="rId21" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K62" r:id="rId22" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K66" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K70" r:id="rId24" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K74" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K7" r:id="rId26" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K11" r:id="rId27" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K15" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K19" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K23" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K27" r:id="rId31" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K31" r:id="rId32" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K35" r:id="rId33" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K39" r:id="rId34" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K43" r:id="rId35" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K47" r:id="rId36" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K51" r:id="rId37" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K55" r:id="rId38" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K59" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K63" r:id="rId40" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K67" r:id="rId41" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K71" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K75" r:id="rId43" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K8" r:id="rId44" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K12" r:id="rId45" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K16" r:id="rId46" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K20" r:id="rId47" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K24" r:id="rId48" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K28" r:id="rId49" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K32" r:id="rId50" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K36" r:id="rId51" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K40" r:id="rId52" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K44" r:id="rId53" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K48" r:id="rId54" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K52" r:id="rId55" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K56" r:id="rId56" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K60" r:id="rId57" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K64" r:id="rId58" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K68" r:id="rId59" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K72" r:id="rId60" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K76" r:id="rId61" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K9" r:id="rId62" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K13" r:id="rId63" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K17" r:id="rId64" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K21" r:id="rId65" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K25" r:id="rId66" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K29" r:id="rId67" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K33" r:id="rId68" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K37" r:id="rId69" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K41" r:id="rId70" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K45" r:id="rId71" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K49" r:id="rId72" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K53" r:id="rId73" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K57" r:id="rId74" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K61" r:id="rId75" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K65" r:id="rId76" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K69" r:id="rId77" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K73" r:id="rId78" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="K77" r:id="rId79" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778"/>
-    <hyperlink ref="I7" r:id="rId80" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I11" r:id="rId81" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I15" r:id="rId82" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I19" r:id="rId83" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I23" r:id="rId84" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I27" r:id="rId85" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I31" r:id="rId86" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I35" r:id="rId87" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I39" r:id="rId88" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I43" r:id="rId89" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I47" r:id="rId90" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I51" r:id="rId91" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I55" r:id="rId92" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I59" r:id="rId93" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I63" r:id="rId94" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I67" r:id="rId95" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I71" r:id="rId96" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I75" r:id="rId97" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I8" r:id="rId98" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I12" r:id="rId99" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I16" r:id="rId100" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I20" r:id="rId101" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I24" r:id="rId102" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I28" r:id="rId103" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I32" r:id="rId104" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I36" r:id="rId105" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I40" r:id="rId106" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I44" r:id="rId107" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I48" r:id="rId108" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I52" r:id="rId109" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I56" r:id="rId110" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I60" r:id="rId111" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I64" r:id="rId112" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I68" r:id="rId113" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I72" r:id="rId114" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I76" r:id="rId115" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I9" r:id="rId116" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I13" r:id="rId117" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I17" r:id="rId118" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I21" r:id="rId119" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I25" r:id="rId120" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I29" r:id="rId121" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I33" r:id="rId122" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I37" r:id="rId123" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I41" r:id="rId124" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I45" r:id="rId125" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I49" r:id="rId126" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I53" r:id="rId127" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I57" r:id="rId128" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I61" r:id="rId129" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I65" r:id="rId130" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I69" r:id="rId131" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I73" r:id="rId132" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
-    <hyperlink ref="I77" r:id="rId133" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221"/>
+    <hyperlink ref="K2" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I3" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I4" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K4" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K5" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I5" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K6" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K10" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K14" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K18" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K22" r:id="rId12" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K26" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K30" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K34" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K38" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K42" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K46" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K50" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K54" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K58" r:id="rId21" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K62" r:id="rId22" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K66" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K70" r:id="rId24" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K74" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K7" r:id="rId26" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K11" r:id="rId27" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K15" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K19" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K23" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K27" r:id="rId31" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K31" r:id="rId32" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K35" r:id="rId33" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K39" r:id="rId34" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K43" r:id="rId35" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K47" r:id="rId36" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K51" r:id="rId37" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K55" r:id="rId38" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K59" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K63" r:id="rId40" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K67" r:id="rId41" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K71" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K75" r:id="rId43" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K8" r:id="rId44" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K12" r:id="rId45" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K16" r:id="rId46" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K20" r:id="rId47" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K24" r:id="rId48" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K28" r:id="rId49" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K32" r:id="rId50" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K36" r:id="rId51" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K40" r:id="rId52" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K44" r:id="rId53" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K48" r:id="rId54" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K52" r:id="rId55" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K56" r:id="rId56" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K60" r:id="rId57" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K64" r:id="rId58" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K68" r:id="rId59" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K72" r:id="rId60" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K76" r:id="rId61" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K9" r:id="rId62" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K13" r:id="rId63" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K17" r:id="rId64" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K21" r:id="rId65" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K25" r:id="rId66" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K29" r:id="rId67" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K33" r:id="rId68" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K37" r:id="rId69" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K41" r:id="rId70" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K45" r:id="rId71" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K49" r:id="rId72" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K53" r:id="rId73" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K57" r:id="rId74" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K61" r:id="rId75" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K65" r:id="rId76" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K69" r:id="rId77" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K73" r:id="rId78" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="K77" r:id="rId79" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA255778" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="I7" r:id="rId80" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="I11" r:id="rId81" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="I15" r:id="rId82" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="I19" r:id="rId83" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="I23" r:id="rId84" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="I27" r:id="rId85" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="I31" r:id="rId86" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="I35" r:id="rId87" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="I39" r:id="rId88" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="I43" r:id="rId89" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="I47" r:id="rId90" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="I51" r:id="rId91" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="I55" r:id="rId92" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="I59" r:id="rId93" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="I63" r:id="rId94" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="I67" r:id="rId95" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="I71" r:id="rId96" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="I75" r:id="rId97" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="I8" r:id="rId98" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="I12" r:id="rId99" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="I16" r:id="rId100" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="I20" r:id="rId101" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="I24" r:id="rId102" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="I28" r:id="rId103" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="I32" r:id="rId104" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="I36" r:id="rId105" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="I40" r:id="rId106" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="I44" r:id="rId107" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="I48" r:id="rId108" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="I52" r:id="rId109" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="I56" r:id="rId110" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="I60" r:id="rId111" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="I64" r:id="rId112" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="I68" r:id="rId113" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="I72" r:id="rId114" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="I76" r:id="rId115" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="I9" r:id="rId116" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="I13" r:id="rId117" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="I17" r:id="rId118" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="I21" r:id="rId119" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="I25" r:id="rId120" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="I29" r:id="rId121" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="I33" r:id="rId122" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="I37" r:id="rId123" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="I41" r:id="rId124" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="I45" r:id="rId125" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="I49" r:id="rId126" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="I53" r:id="rId127" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="I57" r:id="rId128" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="I61" r:id="rId129" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="I65" r:id="rId130" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="I69" r:id="rId131" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="I73" r:id="rId132" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="I77" r:id="rId133" display="https://www.ncbi.nlm.nih.gov/sra?term=SRX658221" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="K78" r:id="rId134" tooltip="Link to BioProject" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA285349" xr:uid="{1EE200BF-CC88-9848-A0B5-A6EB6D8828F4}"/>
+    <hyperlink ref="I78" r:id="rId135" display="https://www.ncbi.nlm.nih.gov/sra/SRX1045044%5Baccn%5D" xr:uid="{B0B70A40-81A9-CF49-8ACF-2D10E590538B}"/>
+    <hyperlink ref="K79" r:id="rId136" tooltip="Link to BioProject" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA285349" xr:uid="{D0C8088A-6520-C245-B690-DA6226046020}"/>
+    <hyperlink ref="K80" r:id="rId137" tooltip="Link to BioProject" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA285349" xr:uid="{19978B11-4412-9342-8F41-6E4016E80DF9}"/>
+    <hyperlink ref="K81" r:id="rId138" tooltip="Link to BioProject" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA285349" xr:uid="{F32C6616-E708-0D48-A397-24AA697A56FE}"/>
+    <hyperlink ref="K82" r:id="rId139" tooltip="Link to BioProject" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA285349" xr:uid="{63596610-6224-9C4D-B9CA-1A46552E1FFE}"/>
+    <hyperlink ref="K83" r:id="rId140" tooltip="Link to BioProject" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA285349" xr:uid="{4C49B39D-104F-EF49-8B28-ADE88B7BF170}"/>
+    <hyperlink ref="K84" r:id="rId141" tooltip="Link to BioProject" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA285349" xr:uid="{76120A54-10B1-E047-837B-55DFA3B1B32A}"/>
+    <hyperlink ref="K85" r:id="rId142" tooltip="Link to BioProject" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA285349" xr:uid="{0C5C1811-1B61-9243-AC4D-037512F5D713}"/>
+    <hyperlink ref="I79" r:id="rId143" display="https://www.ncbi.nlm.nih.gov/sra/SRX1045043%5Baccn%5D" xr:uid="{9AEDC5C1-778E-D042-BE0C-1DE64FCDF870}"/>
+    <hyperlink ref="I80" r:id="rId144" display="https://www.ncbi.nlm.nih.gov/sra/SRX1045042%5Baccn%5D" xr:uid="{ADE1A9F7-0397-4040-A894-7CDCC5A75DB8}"/>
+    <hyperlink ref="I81" r:id="rId145" display="https://www.ncbi.nlm.nih.gov/sra/SRX1045041%5Baccn%5D" xr:uid="{AA4129AD-00BA-544E-A184-830E7CEFB173}"/>
+    <hyperlink ref="I82" r:id="rId146" display="https://www.ncbi.nlm.nih.gov/sra/SRX1045040%5Baccn%5D" xr:uid="{2C766401-D559-0E4A-AB12-D864B61BD0FF}"/>
+    <hyperlink ref="I83" r:id="rId147" display="https://www.ncbi.nlm.nih.gov/sra/SRX1045039%5Baccn%5D" xr:uid="{D4EE4E25-B8BB-4F48-9A73-C4992EE7C6D6}"/>
+    <hyperlink ref="I84" r:id="rId148" display="https://www.ncbi.nlm.nih.gov/sra/SRX1045038%5Baccn%5D" xr:uid="{615C04E2-FF51-A04D-A3DE-0F3C5081D951}"/>
+    <hyperlink ref="I85" r:id="rId149" display="https://www.ncbi.nlm.nih.gov/sra/SRX1045037%5Baccn%5D" xr:uid="{5A525B6D-0970-7443-96FA-57AD88BF3952}"/>
+    <hyperlink ref="L78" r:id="rId150" xr:uid="{1C642C8B-D40B-124F-A77F-28E0C3DDC435}"/>
+    <hyperlink ref="L86" r:id="rId151" xr:uid="{3F80D204-6D33-7642-82C4-D8C6947CAA97}"/>
+    <hyperlink ref="J86" r:id="rId152" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1666091" xr:uid="{835A5A88-0D15-594A-A3FE-2EC0489D186B}"/>
+    <hyperlink ref="J87:J93" r:id="rId153" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1666091" xr:uid="{1CBA0CB4-F48A-264B-9B99-A9810B8A3365}"/>
+    <hyperlink ref="J94:J96" r:id="rId154" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1666091" xr:uid="{0C595048-3939-D643-93BC-91ECE62BB17C}"/>
+    <hyperlink ref="K86" r:id="rId155" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA264813" xr:uid="{6572DC7C-43FD-BC49-B50A-563F6A9E5BE4}"/>
+    <hyperlink ref="K87" r:id="rId156" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA264813" xr:uid="{DCA7E6AE-2AA3-774E-92D7-0D682AEC28AD}"/>
+    <hyperlink ref="K88" r:id="rId157" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA264813" xr:uid="{CB3291AE-F915-AA48-86F3-27506AE3B9DB}"/>
+    <hyperlink ref="K89" r:id="rId158" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA264813" xr:uid="{A2BB77EF-FCA2-F84D-BC02-B937E972EB25}"/>
+    <hyperlink ref="K90" r:id="rId159" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA264813" xr:uid="{3D2B711C-2DB7-CE45-B4BF-82C6640FA757}"/>
+    <hyperlink ref="K91" r:id="rId160" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA264813" xr:uid="{93013851-6265-9B46-B8B6-DAC0D416A144}"/>
+    <hyperlink ref="K92" r:id="rId161" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA264813" xr:uid="{77B9BA37-ABDE-5D43-8E1A-1CB9DE5CBB9A}"/>
+    <hyperlink ref="K93" r:id="rId162" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA264813" xr:uid="{BCC9C4AC-1B9C-E84E-BCA7-57DACA396E6A}"/>
+    <hyperlink ref="K94" r:id="rId163" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA264813" xr:uid="{3E1AECD4-C4F5-FE4C-B369-DECA97C523C6}"/>
+    <hyperlink ref="K95" r:id="rId164" display="https://www.ncbi.nlm.nih.gov/bioproject/PRJNA264813" xr:uid="{1C5D5969-85C3-684A-9087-7CE972100814}"/>
+    <hyperlink ref="I86" r:id="rId165" display="https://www.ncbi.nlm.nih.gov/sra/SRX1008135%5Baccn%5D" xr:uid="{684E19B9-53A7-D444-B2BC-7D6F5BAE3DD4}"/>
+    <hyperlink ref="I87" r:id="rId166" display="https://www.ncbi.nlm.nih.gov/sra/SRX1008136%5Baccn%5D" xr:uid="{CEBB7263-BD8D-E340-AAA9-4453808315FE}"/>
+    <hyperlink ref="I88:I99" r:id="rId167" display="https://www.ncbi.nlm.nih.gov/sra/SRX1008136%5Baccn%5D" xr:uid="{45C5EF9D-00C4-6840-80A1-8A9BA1AD0B46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B58" sqref="B58:B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -4210,7 +5084,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4239,7 +5113,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4268,7 +5142,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4297,7 +5171,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4326,7 +5200,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4346,7 +5220,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4366,7 +5240,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4386,7 +5260,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4406,7 +5280,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4432,7 +5306,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4458,7 +5332,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4484,7 +5358,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4510,7 +5384,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4530,7 +5404,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4550,7 +5424,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4570,7 +5444,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4590,7 +5464,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -4610,7 +5484,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -4630,7 +5504,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -4650,7 +5524,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -4670,7 +5544,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -4690,7 +5564,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -4710,7 +5584,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>257</v>
       </c>
@@ -4739,7 +5613,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>257</v>
       </c>
@@ -4768,7 +5642,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>257</v>
       </c>
@@ -4797,7 +5671,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>258</v>
       </c>
@@ -4820,7 +5694,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>258</v>
       </c>
@@ -4843,7 +5717,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>259</v>
       </c>
@@ -4866,7 +5740,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>259</v>
       </c>
@@ -4889,7 +5763,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>260</v>
       </c>
@@ -4912,7 +5786,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>261</v>
       </c>
@@ -4938,7 +5812,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>261</v>
       </c>
@@ -4964,7 +5838,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -4987,7 +5861,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -5010,7 +5884,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>257</v>
       </c>
@@ -5036,7 +5910,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>257</v>
       </c>
@@ -5062,7 +5936,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>258</v>
       </c>
@@ -5082,7 +5956,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>258</v>
       </c>
@@ -5102,7 +5976,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>259</v>
       </c>
@@ -5122,7 +5996,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>259</v>
       </c>
@@ -5142,7 +6016,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>260</v>
       </c>
@@ -5162,7 +6036,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -5182,7 +6056,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -5205,7 +6079,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>261</v>
       </c>
@@ -5228,7 +6102,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -5248,7 +6122,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -5268,7 +6142,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>257</v>
       </c>
@@ -5288,7 +6162,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>257</v>
       </c>
@@ -5308,7 +6182,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>258</v>
       </c>
@@ -5328,7 +6202,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>258</v>
       </c>
@@ -5348,7 +6222,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>259</v>
       </c>
@@ -5368,7 +6242,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>259</v>
       </c>
@@ -5388,7 +6262,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>260</v>
       </c>
@@ -5414,7 +6288,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>260</v>
       </c>
@@ -5440,7 +6314,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>261</v>
       </c>
@@ -5463,7 +6337,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>261</v>
       </c>
@@ -5486,7 +6360,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>264</v>
       </c>
@@ -5512,7 +6386,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>264</v>
       </c>
@@ -5538,7 +6412,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>264</v>
       </c>
@@ -5564,7 +6438,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>264</v>
       </c>
@@ -5590,7 +6464,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>264</v>
       </c>
@@ -5616,7 +6490,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>264</v>
       </c>
@@ -5642,7 +6516,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>264</v>
       </c>
@@ -5668,7 +6542,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>264</v>
       </c>
@@ -5694,7 +6568,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>264</v>
       </c>
@@ -5720,7 +6594,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>264</v>
       </c>
@@ -5746,7 +6620,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>264</v>
       </c>
@@ -5772,7 +6646,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>264</v>
       </c>
@@ -5798,7 +6672,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>264</v>
       </c>
@@ -5824,7 +6698,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>264</v>
       </c>
@@ -5850,7 +6724,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>264</v>
       </c>
@@ -5876,7 +6750,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>264</v>
       </c>
@@ -5902,7 +6776,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>264</v>
       </c>
@@ -5928,7 +6802,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>264</v>
       </c>
@@ -5954,7 +6828,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>264</v>
       </c>
@@ -5980,7 +6854,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>264</v>
       </c>
@@ -6012,16 +6886,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -6032,7 +6906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="3" t="s">
         <v>20</v>
@@ -6041,7 +6915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>26</v>
@@ -6050,7 +6924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>28</v>
@@ -6059,7 +6933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>30</v>
@@ -6068,7 +6942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
         <v>32</v>
@@ -6077,7 +6951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>34</v>
@@ -6086,7 +6960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
         <v>36</v>
@@ -6095,7 +6969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>38</v>
@@ -6104,7 +6978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
         <v>40</v>
@@ -6113,7 +6987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>42</v>
@@ -6122,7 +6996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
         <v>44</v>
@@ -6131,7 +7005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
         <v>46</v>
@@ -6140,7 +7014,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
         <v>48</v>
@@ -6149,7 +7023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
         <v>50</v>
@@ -6158,7 +7032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
         <v>52</v>
@@ -6167,7 +7041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>54</v>
@@ -6176,7 +7050,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
         <v>56</v>
@@ -6185,7 +7059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
         <v>58</v>
@@ -6194,7 +7068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
         <v>60</v>
@@ -6203,7 +7077,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
         <v>62</v>
@@ -6212,7 +7086,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
         <v>64</v>
@@ -6221,7 +7095,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>66</v>
@@ -6230,7 +7104,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
         <v>68</v>
@@ -6239,7 +7113,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
         <v>70</v>
@@ -6248,7 +7122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
         <v>72</v>
@@ -6257,7 +7131,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
         <v>74</v>
@@ -6266,7 +7140,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
         <v>76</v>
@@ -6275,7 +7149,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
         <v>78</v>
@@ -6284,7 +7158,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
         <v>80</v>
@@ -6293,7 +7167,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="3" t="s">
         <v>82</v>
@@ -6302,7 +7176,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
         <v>84</v>
@@ -6311,7 +7185,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="3" t="s">
         <v>86</v>
@@ -6320,7 +7194,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="3" t="s">
         <v>88</v>
@@ -6329,7 +7203,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="3" t="s">
         <v>90</v>
@@ -6338,7 +7212,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="3" t="s">
         <v>92</v>
@@ -6347,7 +7221,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3" t="s">
         <v>94</v>
@@ -6356,7 +7230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
         <v>96</v>
@@ -6365,7 +7239,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="3" t="s">
         <v>98</v>
@@ -6374,7 +7248,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="3" t="s">
         <v>100</v>
@@ -6383,7 +7257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="3" t="s">
         <v>102</v>
@@ -6392,7 +7266,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="3" t="s">
         <v>104</v>
@@ -6401,7 +7275,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="3" t="s">
         <v>106</v>
@@ -6410,7 +7284,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="3" t="s">
         <v>108</v>
@@ -6419,7 +7293,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="3" t="s">
         <v>110</v>
@@ -6428,7 +7302,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="3" t="s">
         <v>112</v>
@@ -6437,7 +7311,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="3" t="s">
         <v>114</v>
@@ -6446,7 +7320,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="3" t="s">
         <v>116</v>
@@ -6455,7 +7329,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="3" t="s">
         <v>118</v>
@@ -6464,7 +7338,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="3" t="s">
         <v>120</v>
@@ -6473,7 +7347,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="3" t="s">
         <v>122</v>
@@ -6482,7 +7356,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="3" t="s">
         <v>124</v>
@@ -6491,7 +7365,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="3" t="s">
         <v>126</v>
@@ -6500,7 +7374,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="3" t="s">
         <v>128</v>
@@ -6509,7 +7383,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="3" t="s">
         <v>130</v>
@@ -6518,7 +7392,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="3" t="s">
         <v>132</v>
@@ -6527,7 +7401,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="3" t="s">
         <v>134</v>
@@ -6536,7 +7410,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="3" t="s">
         <v>136</v>
@@ -6545,7 +7419,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="3" t="s">
         <v>138</v>
@@ -6554,7 +7428,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="3" t="s">
         <v>140</v>
@@ -6563,7 +7437,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="3" t="s">
         <v>142</v>
@@ -6572,7 +7446,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="3" t="s">
         <v>144</v>
@@ -6581,7 +7455,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="3" t="s">
         <v>146</v>
@@ -6590,7 +7464,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="3" t="s">
         <v>148</v>
@@ -6599,7 +7473,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="3" t="s">
         <v>150</v>
@@ -6608,7 +7482,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="3" t="s">
         <v>152</v>
@@ -6617,7 +7491,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="3" t="s">
         <v>154</v>
@@ -6626,7 +7500,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="3" t="s">
         <v>156</v>
@@ -6635,7 +7509,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="3" t="s">
         <v>158</v>
@@ -6644,7 +7518,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="3" t="s">
         <v>160</v>
@@ -6653,7 +7527,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="3" t="s">
         <v>162</v>
@@ -6662,7 +7536,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="3" t="s">
         <v>164</v>
@@ -6671,7 +7545,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="3" t="s">
         <v>166</v>
@@ -6680,7 +7554,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="3" t="s">
         <v>168</v>
@@ -6689,7 +7563,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="3" t="s">
         <v>170</v>
@@ -6698,7 +7572,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="3" t="s">
         <v>172</v>
@@ -6712,83 +7586,83 @@
     <mergeCell ref="A1:A76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="javascript:HandleVisibilityChangeL1046410251()"/>
-    <hyperlink ref="B1" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440685"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440686"/>
-    <hyperlink ref="B3" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440687"/>
-    <hyperlink ref="B4" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440688"/>
-    <hyperlink ref="B5" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440689"/>
-    <hyperlink ref="B6" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440690"/>
-    <hyperlink ref="B7" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440691"/>
-    <hyperlink ref="B8" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440692"/>
-    <hyperlink ref="B9" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440693"/>
-    <hyperlink ref="B10" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440694"/>
-    <hyperlink ref="B11" r:id="rId12" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440695"/>
-    <hyperlink ref="B12" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440696"/>
-    <hyperlink ref="B13" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440697"/>
-    <hyperlink ref="B14" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440698"/>
-    <hyperlink ref="B15" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440699"/>
-    <hyperlink ref="B16" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440700"/>
-    <hyperlink ref="B17" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440701"/>
-    <hyperlink ref="B18" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440702"/>
-    <hyperlink ref="B19" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440703"/>
-    <hyperlink ref="B20" r:id="rId21" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440704"/>
-    <hyperlink ref="B21" r:id="rId22" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440705"/>
-    <hyperlink ref="B22" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440706"/>
-    <hyperlink ref="B23" r:id="rId24" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440707"/>
-    <hyperlink ref="B24" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440708"/>
-    <hyperlink ref="B25" r:id="rId26" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440709"/>
-    <hyperlink ref="B26" r:id="rId27" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440710"/>
-    <hyperlink ref="B27" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440711"/>
-    <hyperlink ref="B28" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440712"/>
-    <hyperlink ref="B29" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440713"/>
-    <hyperlink ref="B30" r:id="rId31" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440714"/>
-    <hyperlink ref="B31" r:id="rId32" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440715"/>
-    <hyperlink ref="B32" r:id="rId33" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440716"/>
-    <hyperlink ref="B33" r:id="rId34" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440717"/>
-    <hyperlink ref="B34" r:id="rId35" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440718"/>
-    <hyperlink ref="B35" r:id="rId36" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440719"/>
-    <hyperlink ref="B36" r:id="rId37" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440720"/>
-    <hyperlink ref="B37" r:id="rId38" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440721"/>
-    <hyperlink ref="B38" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440722"/>
-    <hyperlink ref="B39" r:id="rId40" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440723"/>
-    <hyperlink ref="B40" r:id="rId41" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440724"/>
-    <hyperlink ref="B41" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440725"/>
-    <hyperlink ref="B42" r:id="rId43" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440726"/>
-    <hyperlink ref="B43" r:id="rId44" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440727"/>
-    <hyperlink ref="B44" r:id="rId45" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440728"/>
-    <hyperlink ref="B45" r:id="rId46" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440729"/>
-    <hyperlink ref="B46" r:id="rId47" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440730"/>
-    <hyperlink ref="B47" r:id="rId48" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440731"/>
-    <hyperlink ref="B48" r:id="rId49" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440732"/>
-    <hyperlink ref="B49" r:id="rId50" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440733"/>
-    <hyperlink ref="B50" r:id="rId51" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440734"/>
-    <hyperlink ref="B51" r:id="rId52" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440735"/>
-    <hyperlink ref="B52" r:id="rId53" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440736"/>
-    <hyperlink ref="B53" r:id="rId54" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440737"/>
-    <hyperlink ref="B54" r:id="rId55" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440738"/>
-    <hyperlink ref="B55" r:id="rId56" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440739"/>
-    <hyperlink ref="B56" r:id="rId57" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440740"/>
-    <hyperlink ref="B57" r:id="rId58" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440741"/>
-    <hyperlink ref="B58" r:id="rId59" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440742"/>
-    <hyperlink ref="B59" r:id="rId60" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440743"/>
-    <hyperlink ref="B60" r:id="rId61" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440744"/>
-    <hyperlink ref="B61" r:id="rId62" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440745"/>
-    <hyperlink ref="B62" r:id="rId63" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440746"/>
-    <hyperlink ref="B63" r:id="rId64" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440747"/>
-    <hyperlink ref="B64" r:id="rId65" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440748"/>
-    <hyperlink ref="B65" r:id="rId66" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440749"/>
-    <hyperlink ref="B66" r:id="rId67" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440750"/>
-    <hyperlink ref="B67" r:id="rId68" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440751"/>
-    <hyperlink ref="B68" r:id="rId69" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440752"/>
-    <hyperlink ref="B69" r:id="rId70" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440753"/>
-    <hyperlink ref="B70" r:id="rId71" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440754"/>
-    <hyperlink ref="B71" r:id="rId72" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440755"/>
-    <hyperlink ref="B72" r:id="rId73" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440756"/>
-    <hyperlink ref="B73" r:id="rId74" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440757"/>
-    <hyperlink ref="B74" r:id="rId75" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440758"/>
-    <hyperlink ref="B75" r:id="rId76" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440759"/>
-    <hyperlink ref="B76" r:id="rId77" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440760"/>
+    <hyperlink ref="A1" r:id="rId1" display="javascript:HandleVisibilityChangeL1046410251()" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440685" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440686" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440687" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440688" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B5" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440689" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B6" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440690" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B7" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440691" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B8" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440692" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B9" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440693" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B10" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440694" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B11" r:id="rId12" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440695" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B12" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440696" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B13" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440697" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B14" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440698" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B15" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440699" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="B16" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440700" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="B17" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440701" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="B18" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440702" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="B19" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440703" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="B20" r:id="rId21" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440704" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="B21" r:id="rId22" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440705" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="B22" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440706" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="B23" r:id="rId24" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440707" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="B24" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440708" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="B25" r:id="rId26" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440709" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="B26" r:id="rId27" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440710" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="B27" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440711" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="B28" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440712" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="B29" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440713" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="B30" r:id="rId31" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440714" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="B31" r:id="rId32" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440715" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="B32" r:id="rId33" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440716" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="B33" r:id="rId34" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440717" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="B34" r:id="rId35" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440718" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="B35" r:id="rId36" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440719" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="B36" r:id="rId37" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440720" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="B37" r:id="rId38" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440721" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="B38" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440722" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="B39" r:id="rId40" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440723" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="B40" r:id="rId41" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440724" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="B41" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440725" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="B42" r:id="rId43" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440726" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="B43" r:id="rId44" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440727" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="B44" r:id="rId45" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440728" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="B45" r:id="rId46" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440729" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="B46" r:id="rId47" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440730" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="B47" r:id="rId48" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440731" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="B48" r:id="rId49" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440732" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="B49" r:id="rId50" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440733" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="B50" r:id="rId51" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440734" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="B51" r:id="rId52" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440735" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="B52" r:id="rId53" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440736" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="B53" r:id="rId54" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440737" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="B54" r:id="rId55" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440738" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="B55" r:id="rId56" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440739" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="B56" r:id="rId57" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440740" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="B57" r:id="rId58" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440741" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="B58" r:id="rId59" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440742" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="B59" r:id="rId60" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440743" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="B60" r:id="rId61" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440744" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="B61" r:id="rId62" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440745" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="B62" r:id="rId63" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440746" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="B63" r:id="rId64" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440747" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="B64" r:id="rId65" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440748" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="B65" r:id="rId66" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440749" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="B66" r:id="rId67" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440750" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="B67" r:id="rId68" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440751" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="B68" r:id="rId69" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440752" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="B69" r:id="rId70" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440753" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="B70" r:id="rId71" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440754" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="B71" r:id="rId72" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440755" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="B72" r:id="rId73" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440756" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="B73" r:id="rId74" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440757" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="B74" r:id="rId75" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440758" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="B75" r:id="rId76" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440759" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="B76" r:id="rId77" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSM1440760" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId78"/>
@@ -6796,16 +7670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H76"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -6819,7 +7691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -6830,7 +7702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>26</v>
       </c>
@@ -6841,7 +7713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -6852,7 +7724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -6863,7 +7735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>32</v>
       </c>
@@ -6874,7 +7746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -6885,7 +7757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -6896,7 +7768,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -6907,7 +7779,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>40</v>
       </c>
@@ -6918,7 +7790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>42</v>
       </c>
@@ -6929,7 +7801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>44</v>
       </c>
@@ -6940,7 +7812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -6951,7 +7823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>48</v>
       </c>
@@ -6962,7 +7834,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>50</v>
       </c>
@@ -6973,7 +7845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>52</v>
       </c>
@@ -6984,7 +7856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>54</v>
       </c>
@@ -6995,7 +7867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -7006,7 +7878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>58</v>
       </c>
@@ -7017,7 +7889,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>60</v>
       </c>
@@ -7028,7 +7900,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>62</v>
       </c>
@@ -7039,7 +7911,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>64</v>
       </c>
@@ -7050,7 +7922,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>66</v>
       </c>
@@ -7061,7 +7933,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>68</v>
       </c>
@@ -7072,7 +7944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>70</v>
       </c>
@@ -7083,7 +7955,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>72</v>
       </c>
@@ -7094,7 +7966,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>74</v>
       </c>
@@ -7105,7 +7977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>76</v>
       </c>
@@ -7116,7 +7988,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>78</v>
       </c>
@@ -7127,7 +7999,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>80</v>
       </c>
@@ -7138,7 +8010,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>82</v>
       </c>
@@ -7149,7 +8021,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>84</v>
       </c>
@@ -7160,7 +8032,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>86</v>
       </c>
@@ -7171,7 +8043,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>88</v>
       </c>
@@ -7182,7 +8054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>90</v>
       </c>
@@ -7193,7 +8065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>92</v>
       </c>
@@ -7204,7 +8076,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>94</v>
       </c>
@@ -7215,7 +8087,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>96</v>
       </c>
@@ -7226,7 +8098,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>98</v>
       </c>
@@ -7237,7 +8109,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>100</v>
       </c>
@@ -7248,7 +8120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>102</v>
       </c>
@@ -7259,7 +8131,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>104</v>
       </c>
@@ -7270,7 +8142,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>106</v>
       </c>
@@ -7281,7 +8153,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>108</v>
       </c>
@@ -7292,7 +8164,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>110</v>
       </c>
@@ -7303,7 +8175,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>112</v>
       </c>
@@ -7314,7 +8186,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>114</v>
       </c>
@@ -7325,7 +8197,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>116</v>
       </c>
@@ -7336,7 +8208,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>118</v>
       </c>
@@ -7347,7 +8219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>120</v>
       </c>
@@ -7358,7 +8230,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>122</v>
       </c>
@@ -7369,7 +8241,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>124</v>
       </c>
@@ -7380,7 +8252,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>126</v>
       </c>
@@ -7391,7 +8263,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>128</v>
       </c>
@@ -7402,7 +8274,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>130</v>
       </c>
@@ -7413,7 +8285,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>132</v>
       </c>
@@ -7424,7 +8296,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>134</v>
       </c>
@@ -7435,7 +8307,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>136</v>
       </c>
@@ -7446,7 +8318,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>138</v>
       </c>
@@ -7457,7 +8329,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>140</v>
       </c>
@@ -7468,7 +8340,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>142</v>
       </c>
@@ -7479,7 +8351,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>144</v>
       </c>
@@ -7490,7 +8362,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>146</v>
       </c>
@@ -7501,7 +8373,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>148</v>
       </c>
@@ -7512,7 +8384,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>150</v>
       </c>
@@ -7523,7 +8395,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>152</v>
       </c>
@@ -7534,7 +8406,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>154</v>
       </c>
@@ -7545,7 +8417,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>156</v>
       </c>
@@ -7556,7 +8428,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>158</v>
       </c>
@@ -7567,7 +8439,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>160</v>
       </c>
@@ -7578,7 +8450,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>162</v>
       </c>
@@ -7589,7 +8461,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>164</v>
       </c>
@@ -7600,7 +8472,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>166</v>
       </c>
@@ -7611,7 +8483,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>168</v>
       </c>
@@ -7622,7 +8494,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>170</v>
       </c>
@@ -7633,7 +8505,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>172</v>
       </c>
